--- a/data/schedule_data.xlsx
+++ b/data/schedule_data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angelmah\Desktop\codes\bess-optimizer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F24349-AE78-42A4-B0D6-5D95012BB1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CC74FD-398A-4291-99A7-0DB8DCE1B180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4658" yWindow="4147" windowWidth="21600" windowHeight="11333" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2512" yWindow="2512" windowWidth="21600" windowHeight="11333" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="s1" sheetId="1" r:id="rId1"/>
+    <sheet name="basis" sheetId="2" r:id="rId1"/>
+    <sheet name="availability" sheetId="1" r:id="rId2"/>
+    <sheet name="soc_limit" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Time</t>
   </si>
@@ -40,6 +42,36 @@
   </si>
   <si>
     <t>cres</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>sym</t>
+  </si>
+  <si>
+    <t>arbitrage</t>
+  </si>
+  <si>
+    <t>regulation</t>
+  </si>
+  <si>
+    <t>primary_reserve</t>
+  </si>
+  <si>
+    <t>contingency_reserve</t>
+  </si>
+  <si>
+    <t>opposite direction</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
 </sst>
 </file>
@@ -55,12 +87,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,8 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,11 +396,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39EECEB-0A25-441C-80DA-0E45C2DB027A}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -793,4 +906,294 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96F4BC4-87A3-4C98-AE59-199E91322398}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/schedule_data.xlsx
+++ b/data/schedule_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angelmah\Desktop\codes\bess-optimizer\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelmah/Documents/codes/bess-optimizer/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CC74FD-398A-4291-99A7-0DB8DCE1B180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60486EBE-EA9C-4842-8460-C72756201020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2512" yWindow="2512" windowWidth="21600" windowHeight="11333" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="28800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basis" sheetId="2" r:id="rId1"/>
@@ -399,13 +399,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39EECEB-0A25-441C-80DA-0E45C2DB027A}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -416,7 +416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -425,7 +425,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -445,7 +445,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -454,7 +454,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -470,15 +470,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B25"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -529,7 +529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -563,7 +563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -614,7 +614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -631,7 +631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -733,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -750,7 +750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -767,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -784,7 +784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -801,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -835,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -869,7 +869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -886,7 +886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -900,6 +900,414 @@
         <v>1</v>
       </c>
       <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
         <v>1</v>
       </c>
     </row>
@@ -910,15 +1318,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96F4BC4-87A3-4C98-AE59-199E91322398}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -929,7 +1337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -940,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -951,7 +1359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -962,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -973,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -984,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -995,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1006,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1017,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1028,7 +1436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1039,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1050,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1061,7 +1469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1072,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1083,7 +1491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1094,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1105,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1116,7 +1524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1127,7 +1535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1138,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1149,7 +1557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1160,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1171,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1182,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1190,6 +1598,270 @@
         <v>0</v>
       </c>
       <c r="C25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2">
         <v>1</v>
       </c>
     </row>
